--- a/office/LAB18.xlsx
+++ b/office/LAB18.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\jpr\django\pc-notebook\office\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hornir\Documents\GitHub\pc-notebook\office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C31BE85F-932E-478A-9BFF-3B79885EEB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39210" yWindow="8235" windowWidth="28110" windowHeight="16440" xr2:uid="{547B3E47-BA4C-4D67-A3E3-44322967ABC2}"/>
+    <workbookView xWindow="40152" yWindow="8232" windowWidth="28116" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$11</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">Лист1!$B$14:$C$15</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">Лист1!$A$17</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Название</t>
   </si>
@@ -104,12 +107,30 @@
   </si>
   <si>
     <t>&gt;8,5</t>
+  </si>
+  <si>
+    <t>Д</t>
+  </si>
+  <si>
+    <t>Названия строк</t>
+  </si>
+  <si>
+    <t>Общий итог</t>
+  </si>
+  <si>
+    <t>Сумма по полю Год выпуска</t>
+  </si>
+  <si>
+    <t>Сумма по полю Рейтинг</t>
+  </si>
+  <si>
+    <t>дддддд</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -149,9 +170,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -167,6 +193,248 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Hornir" refreshedDate="44923.579347453706" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E11" sheet="Лист1"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Название" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="8" count="10">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="8"/>
+        <s v="вап"/>
+        <s v="гкепр"/>
+        <s v="куе"/>
+        <s v="онпр"/>
+        <s v="парова"/>
+        <s v="Убили негра"/>
+        <s v="уцкбдюлр"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Год выпуска" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="12314"/>
+    </cacheField>
+    <cacheField name="Жанр" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="34" count="10">
+        <n v="34"/>
+        <n v="4"/>
+        <n v="5"/>
+        <s v="джаз"/>
+        <s v="апроа"/>
+        <s v="вап"/>
+        <s v="фачми"/>
+        <s v="ывф"/>
+        <s v="поп"/>
+        <s v="укыаеп"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Исполнитель" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="5" count="8">
+        <n v="4"/>
+        <n v="5"/>
+        <s v="сми"/>
+        <s v="вапр"/>
+        <s v="нроевк"/>
+        <s v="куц"/>
+        <s v="кто-то"/>
+        <s v="пго"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Рейтинг" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5" maxValue="98"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="10">
+  <r>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="8.5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="245"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="86"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2345"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="96"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="5468"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="98"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="12314"/>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="75"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="312"/>
+    <x v="7"/>
+    <x v="5"/>
+    <n v="34"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2010"/>
+    <x v="8"/>
+    <x v="6"/>
+    <n v="78"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="7486"/>
+    <x v="9"/>
+    <x v="7"/>
+    <n v="78"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="11">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Сумма по полю Рейтинг" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Сумма по полю Год выпуска" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -465,24 +733,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6348C324-FF8C-4FFA-A620-0934F182D1BF}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -516,7 +784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -533,7 +801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>8</v>
       </c>
@@ -550,9 +818,9 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>245</v>
@@ -567,7 +835,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -584,7 +852,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -601,7 +869,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -618,7 +886,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -635,7 +903,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -652,7 +920,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -669,28 +937,176 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="b">
+        <f ca="1" xml:space="preserve"> (YEAR(TODAY()) - B2) &gt; 200</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E9">
+  <sortState ref="A2:E9">
     <sortCondition ref="A2:A9"/>
     <sortCondition ref="B2:B9"/>
     <sortCondition ref="E2:E9" customList="ук"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4">
+        <v>96</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>78</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4">
+        <v>34</v>
+      </c>
+      <c r="C6" s="4">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4">
+        <v>75</v>
+      </c>
+      <c r="C7" s="4">
+        <v>12314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4">
+        <v>78</v>
+      </c>
+      <c r="C8" s="4">
+        <v>7486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4">
+        <v>184</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5713</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="4">
+        <v>564.5</v>
+      </c>
+      <c r="C10" s="4">
+        <v>30191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/office/LAB18.xlsx
+++ b/office/LAB18.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ЭтаКнига"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hornir\Documents\GitHub\pc-notebook\office\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\jpr\django\pc-notebook\office\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C379BDBC-7763-4FA1-AAC5-25E1563D7EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40152" yWindow="8232" windowWidth="28116" windowHeight="16440" activeTab="1"/>
+    <workbookView xWindow="39210" yWindow="8235" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$11</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">Лист1!$A$17</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
   <si>
     <t>Название</t>
   </si>
@@ -130,7 +132,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,14 +172,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -195,8 +196,1140 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[LAB18.xlsx]Лист2!Сводная таблица1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Сумма по полю Рейтинг</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист2!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>вапр</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>кто-то</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>куц</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>нроевк</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>пго</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>сми</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>184</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6E4B-417E-8DB4-2458DE57C801}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Сумма по полю Год выпуска</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист2!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>вапр</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>кто-то</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>куц</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>нроевк</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>пго</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>сми</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2345</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12314</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7486</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6E4B-417E-8DB4-2458DE57C801}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="371589967"/>
+        <c:axId val="371590383"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="371589967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="371590383"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="371590383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="371589967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D6A8598-2A56-699F-4CC9-21207225DA19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Hornir" refreshedDate="44923.579347453706" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Hornir" refreshedDate="44923.579347453706" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10" xr:uid="{00000000-000A-0000-FFFF-FFFF05000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E11" sheet="Лист1"/>
   </cacheSource>
@@ -332,7 +1465,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0">
@@ -428,13 +1561,50 @@
     <dataField name="Сумма по полю Рейтинг" fld="4" baseField="0" baseItem="0"/>
     <dataField name="Сумма по полю Год выпуска" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D7737D3-CBCC-4A1B-B5F2-D2DEEB7D72E5}" name="Таблица1" displayName="Таблица1" ref="A1:E11" totalsRowShown="0">
+  <autoFilter ref="A1:E11" xr:uid="{6D7737D3-CBCC-4A1B-B5F2-D2DEEB7D72E5}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{77635E85-9797-4041-9ED4-C8E9C9E161BB}" name="Название"/>
+    <tableColumn id="2" xr3:uid="{94BD3FFB-6636-4D9A-A882-19FB2BB2B84D}" name="Год выпуска"/>
+    <tableColumn id="3" xr3:uid="{D00B74A6-9779-42B6-8A97-56BC53F252B6}" name="Жанр"/>
+    <tableColumn id="4" xr3:uid="{9D071CC1-45B2-4663-AB95-9141ACA7C1BC}" name="Исполнитель"/>
+    <tableColumn id="5" xr3:uid="{42515563-6321-4EB6-8046-B90C6AE17FC4}" name="Рейтинг"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -733,7 +1903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -741,16 +1911,16 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,7 +1937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -784,7 +1954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -801,7 +1971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
@@ -818,7 +1988,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -835,7 +2005,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -852,7 +2022,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -869,7 +2039,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -886,7 +2056,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -903,7 +2073,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -920,7 +2090,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -937,7 +2107,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -954,7 +2124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -965,14 +2135,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="b">
         <f ca="1" xml:space="preserve"> (YEAR(TODAY()) - B2) &gt; 200</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E9">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E9">
     <sortCondition ref="A2:A9"/>
     <sortCondition ref="B2:B9"/>
     <sortCondition ref="E2:E9" customList="ук"/>
@@ -982,21 +2152,232 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85AF782-D8F5-49FC-9EF4-B2B03002D986}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>34</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>2345</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2010</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>312</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>12314</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>7486</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>245</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>5468</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1007,106 +2388,107 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>4</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>13.5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>96</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4">
         <v>2345</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>78</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>2010</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>34</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6">
         <v>312</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>75</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
         <v>12314</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>78</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>7486</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>184</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <v>5713</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>564.5</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10">
         <v>30191</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>